--- a/biology/Zoologie/Felimare_picta/Felimare_picta.xlsx
+++ b/biology/Zoologie/Felimare_picta/Felimare_picta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Felimare picta, communément appelé Doris géant, est un nudibranche de la famille des Chromodorididae.
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce nudibranche mesure en moyenne de 10 à 15 cm mais sa taille peut atteindre les 20 cm. C'est le plus grand doris de Méditerranée[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce nudibranche mesure en moyenne de 10 à 15 cm mais sa taille peut atteindre les 20 cm. C'est le plus grand doris de Méditerranée.
 Son manteau, le plus souvent jaune pâle, peut tirer vers le bleu foncé et est recouvert de petits points et de fines lignes jaunes très clairs.
-Les rhinophores présentent 22 à 30 lamelles obliques[4] et leurs extrémités sont de couleur bleu indigo[5] qui s'éclaircit en dégradé en descendant vers la tête[4]. Un anneau jaune à la base de chaque rhinophore marque le haut du fourreau dans lequel ils peuvent se rétracter[4],[5]. Les rhinophores et les branchies se rétractent à la moindre alerte.
+Les rhinophores présentent 22 à 30 lamelles obliques et leurs extrémités sont de couleur bleu indigo qui s'éclaircit en dégradé en descendant vers la tête. Un anneau jaune à la base de chaque rhinophore marque le haut du fourreau dans lequel ils peuvent se rétracter,. Les rhinophores et les branchies se rétractent à la moindre alerte.
 			Détail de la tête permettant de voir les rhinophores.
 			Détail des branchies.
 </t>
@@ -548,11 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alimentation
-Felimare picta se nourrit des éponges du genre Ircinia[5]
-Reproduction
-En Méditerranée, Felimare picta se reproduit l'été[4].
-La ponte de Felimare picta se présente sous la forme d'un fin ruban gélatineux[4] jaune ou blanc aux bords festonnés. Elle est enroulée en spirale et est collée sur des substrats dur par le côté du ruban large de 10 mm environ[4]. La ponte forme une corolle qui peut atteindre jusqu'à 5 cm de diamètre[5].
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Felimare picta se nourrit des éponges du genre Ircinia
 </t>
         </is>
       </c>
@@ -578,13 +594,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat et répartition</t>
+          <t>Écologie et comportement</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Felimare picta est répartie dans tout le bassin méditerranéen, l’Adriatique, l’Atlantique Est depuis l’Espagne jusqu'en l’Afrique de l’Ouest et en Atlantique Ouest, de la Floride au Brésil[4].
-Il vit de la surface à 60 mètres de profondeur[4]. Il affectionne particulièrement les épaves[4].
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Méditerranée, Felimare picta se reproduit l'été.
+La ponte de Felimare picta se présente sous la forme d'un fin ruban gélatineux jaune ou blanc aux bords festonnés. Elle est enroulée en spirale et est collée sur des substrats dur par le côté du ruban large de 10 mm environ. La ponte forme une corolle qui peut atteindre jusqu'à 5 cm de diamètre.
 </t>
         </is>
       </c>
@@ -610,15 +632,16 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Taxinomie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Sous-espèces
-Cet animal est représenté par deux sous-espèces selon World Register of Marine Species                               (16 mai 2013)[6] :
-Felimare picta azorica (Ortea, Valdes &amp; Garcia-Gomez, 1996) : connu uniquement au Açores.
-Felimare picta verdensis (Ortea, Valdes &amp; Garcia-Gomez, 1996) : en Afrique de l'Est</t>
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Felimare picta est répartie dans tout le bassin méditerranéen, l’Adriatique, l’Atlantique Est depuis l’Espagne jusqu'en l’Afrique de l’Ouest et en Atlantique Ouest, de la Floride au Brésil.
+Il vit de la surface à 60 mètres de profondeur. Il affectionne particulièrement les épaves.
+</t>
         </is>
       </c>
     </row>
@@ -643,10 +666,50 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cet animal est représenté par deux sous-espèces selon World Register of Marine Species                               (16 mai 2013) :
+Felimare picta azorica (Ortea, Valdes &amp; Garcia-Gomez, 1996) : connu uniquement au Açores.
+Felimare picta verdensis (Ortea, Valdes &amp; Garcia-Gomez, 1996) : en Afrique de l'Est</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Felimare_picta</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Felimare_picta</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Philippi, Rodolfo Amando, 1808-1904, Enumeratio molluscorum Siciliae cum viventium tum in tellure tertiaria fossilium, quae in itinere suo observavit,  (œuvre littéraire), Inconnu, Berlin, 1836, [lire en ligne] (p. 105).</t>
         </is>
